--- a/nodes_source_analyses/energy/energy/energy_chp_ultra_supercritical_coal.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_chp_ultra_supercritical_coal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/nodes_source_analyses/energy/energy/AAA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB81DA3-8E27-C848-9308-B450E49903A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0EFC72-1B3D-BE4A-ABBB-7678AFF34579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="2360" windowWidth="25600" windowHeight="17520" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="146">
   <si>
     <t>Source</t>
   </si>
@@ -153,9 +153,6 @@
     <t xml:space="preserve">Decmmmissioning cost </t>
   </si>
   <si>
-    <t>Electricity output capacity</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Electricity output capacity</t>
   </si>
   <si>
@@ -186,12 +183,6 @@
     <t>takes_part_in_ets</t>
   </si>
   <si>
-    <t>electricity_output_capacity</t>
-  </si>
-  <si>
-    <t>heat_output_capacity</t>
-  </si>
-  <si>
     <t>initial_investment</t>
   </si>
   <si>
@@ -229,9 +220,6 @@
   </si>
   <si>
     <t>quintel/etsource@0277ad226491f5aae44c874b298cbcf694d2f6cb</t>
-  </si>
-  <si>
-    <t>Heat output capacity</t>
   </si>
   <si>
     <t>Investment cost with ccs</t>
@@ -808,6 +796,15 @@
   </si>
   <si>
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>input capacity</t>
+  </si>
+  <si>
+    <t>electrical efficiency</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1543,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1863,6 +1860,11 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="238">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2737,12 +2739,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="27"/>
+    <col min="1" max="1" width="4.83203125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="38" customFormat="1">
@@ -2768,16 +2770,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5"/>
       <c r="B5" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2802,7 +2804,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
       <c r="B9" s="106" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C9" s="107"/>
     </row>
@@ -2814,31 +2816,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
       <c r="B11" s="108" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="110" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="108"/>
       <c r="C12" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="5"/>
       <c r="B13" s="108"/>
       <c r="C13" s="111" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
       <c r="B14" s="108"/>
       <c r="C14" s="109" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2849,58 +2851,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="5"/>
       <c r="B16" s="108" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C16" s="112" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5"/>
       <c r="B17" s="108"/>
       <c r="C17" s="113" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5"/>
       <c r="B18" s="108"/>
       <c r="C18" s="114" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="108"/>
       <c r="C19" s="115" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" s="116"/>
       <c r="C20" s="117" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" s="116"/>
       <c r="C21" s="118" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" s="116"/>
       <c r="C22" s="119" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="116"/>
       <c r="C23" s="120" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2914,25 +2916,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K56"/>
+  <dimension ref="B1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="45" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="2"/>
+    <col min="8" max="8" width="5.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="49.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2947,7 +2949,7 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="167" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="168"/>
       <c r="D2" s="168"/>
@@ -3011,7 +3013,7 @@
     <row r="8" spans="2:11" s="3" customFormat="1" ht="18">
       <c r="B8" s="134"/>
       <c r="C8" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="135" t="s">
         <v>15</v>
@@ -3043,7 +3045,7 @@
     <row r="10" spans="2:11" s="3" customFormat="1" ht="19" thickBot="1">
       <c r="B10" s="34"/>
       <c r="C10" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="21"/>
@@ -3056,7 +3058,7 @@
     <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="29"/>
       <c r="C11" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>5</v>
@@ -3068,7 +3070,7 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J11" s="140"/>
       <c r="K11" s="1"/>
@@ -3076,7 +3078,7 @@
     <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="29"/>
       <c r="C12" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>5</v>
@@ -3088,7 +3090,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J12" s="140"/>
       <c r="K12" s="1"/>
@@ -3108,7 +3110,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J13" s="140"/>
       <c r="K13" s="1"/>
@@ -3116,49 +3118,41 @@
     <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="29"/>
       <c r="C14" s="43" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E14" s="48">
         <f>'Research data'!H6</f>
-        <v>695.65</v>
+        <v>1500</v>
       </c>
       <c r="F14" s="26"/>
-      <c r="G14" s="46" t="s">
-        <v>31</v>
+      <c r="G14" s="176" t="s">
+        <v>144</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J14" s="140"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1">
+    <row r="15" spans="2:11">
       <c r="B15" s="29"/>
-      <c r="C15" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="48">
-        <v>260.86956521739103</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="C15" s="137"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="140"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="29"/>
-      <c r="C16" s="137"/>
+      <c r="C16" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="D16" s="138"/>
       <c r="E16" s="131"/>
       <c r="F16" s="27"/>
@@ -3169,143 +3163,151 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="29"/>
-      <c r="C17" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="138"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="140"/>
+      <c r="C17" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="44">
+        <f>'Research data'!H15</f>
+        <v>1182605000</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="141"/>
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="29"/>
       <c r="C18" s="43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="44">
-        <f>'Research data'!H14</f>
-        <v>1182605000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="46" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="H18" s="26"/>
-      <c r="I18" s="47" t="s">
-        <v>82</v>
+      <c r="I18" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="J18" s="141"/>
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="29"/>
       <c r="C19" s="43" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="44">
         <v>0</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="46" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="141"/>
+        <v>53</v>
+      </c>
+      <c r="J19" s="140"/>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="29"/>
       <c r="C20" s="43" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="44">
         <v>0</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J20" s="140"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="29"/>
       <c r="C21" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="44">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="E21" s="130">
+        <f>'Research data'!H17</f>
+        <v>32278160</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="46" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="28" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="J21" s="140"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="29"/>
       <c r="C22" s="43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="130">
-        <f>'Research data'!H16</f>
-        <v>32278160</v>
+        <v>50</v>
+      </c>
+      <c r="E22" s="44">
+        <f>'Research data'!H19</f>
+        <v>1530.43</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J22" s="140"/>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="29"/>
       <c r="C23" s="43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E23" s="44">
-        <f>'Research data'!H18</f>
-        <v>1530.43</v>
+        <v>0</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="28" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="J23" s="140"/>
     </row>
@@ -3315,207 +3317,193 @@
         <v>49</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E24" s="44">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="46" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H24" s="26"/>
-      <c r="I24" s="28" t="s">
-        <v>56</v>
+      <c r="I24" s="166" t="s">
+        <v>142</v>
       </c>
       <c r="J24" s="140"/>
     </row>
     <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="29"/>
       <c r="C25" s="43" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E25" s="44">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="F25" s="26"/>
-      <c r="G25" s="46" t="s">
-        <v>26</v>
-      </c>
+      <c r="G25" s="26"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="166" t="s">
-        <v>146</v>
+      <c r="I25" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="J25" s="140"/>
     </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1">
+    <row r="26" spans="2:10">
       <c r="B26" s="29"/>
-      <c r="C26" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="44">
-        <v>1</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="C26" s="137"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
       <c r="J26" s="140"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="29"/>
-      <c r="C27" s="137"/>
+      <c r="C27" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="D27" s="138"/>
       <c r="E27" s="131"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="139"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="140"/>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="29"/>
-      <c r="C28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="C28" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="44">
+        <f>'Research data'!H10</f>
+        <v>0.3</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="47" t="s">
+        <v>62</v>
+      </c>
       <c r="J28" s="140"/>
     </row>
     <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="29"/>
       <c r="C29" s="43" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="44">
+        <f>'Research data'!H11</f>
         <v>4</v>
       </c>
-      <c r="E29" s="44">
-        <f>'Research data'!H9</f>
-        <v>0.3</v>
-      </c>
       <c r="F29" s="26"/>
-      <c r="G29" s="26" t="s">
-        <v>16</v>
+      <c r="G29" s="46" t="s">
+        <v>29</v>
       </c>
       <c r="H29" s="26"/>
-      <c r="I29" s="47" t="s">
-        <v>66</v>
+      <c r="I29" s="152" t="s">
+        <v>131</v>
       </c>
       <c r="J29" s="140"/>
     </row>
     <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="29"/>
       <c r="C30" s="43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="44">
-        <f>'Research data'!H10</f>
-        <v>4</v>
+        <f>'Research data'!H12</f>
+        <v>40</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="152" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J30" s="140"/>
     </row>
     <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="29"/>
       <c r="C31" s="43" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E31" s="44">
-        <f>'Research data'!H11</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F31" s="26"/>
-      <c r="G31" s="46" t="s">
-        <v>28</v>
-      </c>
+      <c r="G31" s="26"/>
       <c r="H31" s="26"/>
-      <c r="I31" s="152" t="s">
-        <v>135</v>
+      <c r="I31" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="J31" s="140"/>
     </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1">
+    <row r="32" spans="2:10">
       <c r="B32" s="29"/>
-      <c r="C32" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="44">
-        <v>0</v>
-      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="131"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
-      <c r="I32" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="I32" s="27"/>
       <c r="J32" s="140"/>
     </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="29"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="140"/>
-    </row>
-    <row r="34" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="4"/>
+    <row r="33" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -3558,6 +3546,9 @@
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
@@ -3692,16 +3683,6 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3717,35 +3698,35 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:T22"/>
+  <dimension ref="B1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="49" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="49" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" style="49" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="49" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" style="49" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="76" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="76" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="76" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" style="76" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="76" customWidth="1"/>
-    <col min="15" max="15" width="2.28515625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="49" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="49" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="49" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="49" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="49" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="49" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="76" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="76" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="76" customWidth="1"/>
+    <col min="13" max="13" width="2.83203125" style="76" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="76" customWidth="1"/>
+    <col min="15" max="15" width="2.33203125" style="49" customWidth="1"/>
     <col min="16" max="16" width="10" style="76" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" style="76" customWidth="1"/>
+    <col min="17" max="17" width="3.5" style="76" customWidth="1"/>
     <col min="18" max="18" width="10" style="76" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" style="49" customWidth="1"/>
-    <col min="20" max="20" width="75.42578125" style="49" customWidth="1"/>
-    <col min="21" max="16384" width="10.7109375" style="49"/>
+    <col min="19" max="19" width="2.83203125" style="49" customWidth="1"/>
+    <col min="20" max="20" width="75.5" style="49" customWidth="1"/>
+    <col min="21" max="16384" width="10.6640625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="17" thickBot="1"/>
@@ -3773,7 +3754,7 @@
     <row r="3" spans="2:20" s="35" customFormat="1">
       <c r="B3" s="34"/>
       <c r="C3" s="125" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -3782,11 +3763,11 @@
       </c>
       <c r="G3" s="125"/>
       <c r="H3" s="125" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I3" s="125"/>
       <c r="J3" s="126" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K3" s="126"/>
       <c r="L3" s="126" t="s">
@@ -3794,19 +3775,19 @@
       </c>
       <c r="M3" s="126"/>
       <c r="N3" s="126" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O3" s="125"/>
       <c r="P3" s="126" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="126"/>
       <c r="R3" s="126" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S3" s="125"/>
       <c r="T3" s="125" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:20">
@@ -3833,7 +3814,7 @@
     <row r="5" spans="2:20" ht="17" thickBot="1">
       <c r="B5" s="52"/>
       <c r="C5" s="42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
@@ -3855,201 +3836,207 @@
     </row>
     <row r="6" spans="2:20" ht="17" thickBot="1">
       <c r="B6" s="52"/>
-      <c r="C6" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="121" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="129"/>
+      <c r="C6" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="177" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="42"/>
       <c r="H6" s="83">
+        <f>J7/Notes!D20</f>
+        <v>1500</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="80"/>
+    </row>
+    <row r="7" spans="2:20" ht="17" thickBot="1">
+      <c r="B7" s="52"/>
+      <c r="C7" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="121" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="129"/>
+      <c r="H7" s="83">
         <f>ROUND(695.652173913043,2)</f>
         <v>695.65</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="85">
+      <c r="I7" s="84"/>
+      <c r="J7" s="85">
         <v>600</v>
       </c>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="79"/>
-      <c r="T6" s="80"/>
-    </row>
-    <row r="7" spans="2:20">
-      <c r="B7" s="52"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="T7" s="128"/>
-    </row>
-    <row r="8" spans="2:20" ht="17" thickBot="1">
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="79"/>
+      <c r="T7" s="80"/>
+    </row>
+    <row r="8" spans="2:20">
       <c r="B8" s="52"/>
-      <c r="C8" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
       <c r="T8" s="128"/>
     </row>
     <row r="9" spans="2:20" ht="17" thickBot="1">
       <c r="B9" s="52"/>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="T9" s="128"/>
+    </row>
+    <row r="10" spans="2:20" ht="17" thickBot="1">
+      <c r="B10" s="52"/>
+      <c r="C10" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="82" t="s">
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="94">
+      <c r="G10" s="84"/>
+      <c r="H10" s="94">
         <f>ROUND(0.3,1)</f>
         <v>0.3</v>
       </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="90">
+      <c r="I10" s="88"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="90">
         <f>568*594/1000000</f>
         <v>0.33739200000000003</v>
       </c>
-      <c r="R9" s="90">
+      <c r="R10" s="90">
         <f>579*489/1000000</f>
         <v>0.28313100000000002</v>
       </c>
-      <c r="T9" s="133" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="17" thickBot="1">
-      <c r="B10" s="52"/>
-      <c r="C10" s="93" t="s">
+      <c r="T10" s="133" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="17" thickBot="1">
+      <c r="B11" s="52"/>
+      <c r="C11" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="82" t="s">
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="94">
+      <c r="G11" s="84"/>
+      <c r="H11" s="94">
         <f>ROUND(4,0)</f>
         <v>4</v>
-      </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="85">
-        <f>Notes!D67</f>
-        <v>4</v>
-      </c>
-      <c r="M10" s="89"/>
-      <c r="N10" s="85">
-        <f>Notes!D34</f>
-        <v>4</v>
-      </c>
-      <c r="O10" s="89"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="T10" s="45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" ht="17" thickBot="1">
-      <c r="B11" s="52"/>
-      <c r="C11" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="96">
-        <f>ROUND(40,0)</f>
-        <v>40</v>
       </c>
       <c r="I11" s="89"/>
       <c r="J11" s="89"/>
       <c r="K11" s="89"/>
       <c r="L11" s="85">
-        <f>Notes!D56</f>
-        <v>40</v>
+        <f>Notes!D67</f>
+        <v>4</v>
       </c>
       <c r="M11" s="89"/>
       <c r="N11" s="85">
-        <f>Notes!D35</f>
-        <v>40</v>
+        <f>Notes!D34</f>
+        <v>4</v>
       </c>
       <c r="O11" s="89"/>
       <c r="P11" s="79"/>
       <c r="Q11" s="79"/>
       <c r="R11" s="79"/>
       <c r="T11" s="45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="17" thickBot="1">
       <c r="B12" s="52"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="T12" s="80"/>
-    </row>
-    <row r="13" spans="2:20" ht="17" thickBot="1">
+      <c r="C12" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="84"/>
+      <c r="H12" s="96">
+        <f>ROUND(40,0)</f>
+        <v>40</v>
+      </c>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="85">
+        <f>Notes!D56</f>
+        <v>40</v>
+      </c>
+      <c r="M12" s="89"/>
+      <c r="N12" s="85">
+        <f>Notes!D35</f>
+        <v>40</v>
+      </c>
+      <c r="O12" s="89"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="T12" s="45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
       <c r="B13" s="52"/>
-      <c r="C13" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -4066,106 +4053,100 @@
     </row>
     <row r="14" spans="2:20" ht="17" thickBot="1">
       <c r="B14" s="52"/>
-      <c r="C14" s="132" t="s">
-        <v>111</v>
+      <c r="C14" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="123"/>
-      <c r="H14" s="97">
-        <f>ROUND(H15*H6*1000,2)</f>
-        <v>1182605000</v>
-      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
       <c r="O14" s="17"/>
       <c r="P14" s="92"/>
       <c r="Q14" s="92"/>
       <c r="R14" s="92"/>
-      <c r="T14" s="143" t="s">
-        <v>123</v>
-      </c>
+      <c r="T14" s="80"/>
     </row>
     <row r="15" spans="2:20" ht="17" thickBot="1">
       <c r="B15" s="52"/>
       <c r="C15" s="132" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="121" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="129"/>
+        <v>107</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="122" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="123"/>
       <c r="H15" s="97">
-        <v>1700</v>
-      </c>
-      <c r="I15" s="89"/>
-      <c r="J15" s="104">
-        <f>Notes!D22</f>
-        <v>1400</v>
-      </c>
+        <f>ROUND(H16*H7*1000,2)</f>
+        <v>1182605000</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="105"/>
       <c r="K15" s="89"/>
       <c r="L15" s="89"/>
       <c r="M15" s="89"/>
       <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
+      <c r="O15" s="17"/>
       <c r="P15" s="92"/>
       <c r="Q15" s="92"/>
       <c r="R15" s="92"/>
-      <c r="T15" s="164" t="s">
-        <v>140</v>
+      <c r="T15" s="143" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="17" thickBot="1">
       <c r="B16" s="52"/>
       <c r="C16" s="132" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="123"/>
-      <c r="H16" s="100">
-        <f>ROUND(H17*1000*H6,2)</f>
-        <v>32278160</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="89"/>
+        <v>108</v>
+      </c>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="121" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="129"/>
+      <c r="H16" s="97">
+        <v>1700</v>
+      </c>
+      <c r="I16" s="89"/>
+      <c r="J16" s="104">
+        <f>Notes!D22</f>
+        <v>1400</v>
+      </c>
       <c r="K16" s="89"/>
       <c r="L16" s="89"/>
       <c r="M16" s="89"/>
       <c r="N16" s="89"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="T16" s="143" t="s">
-        <v>122</v>
+      <c r="O16" s="89"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="T16" s="164" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="17" thickBot="1">
       <c r="B17" s="52"/>
       <c r="C17" s="132" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
       <c r="F17" s="123" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="G17" s="123"/>
       <c r="H17" s="100">
-        <v>46.4</v>
+        <f>ROUND(H18*1000*H7,2)</f>
+        <v>32278160</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="89"/>
@@ -4177,53 +4158,52 @@
       <c r="P17" s="89"/>
       <c r="Q17" s="89"/>
       <c r="R17" s="89"/>
-      <c r="T17" s="45" t="s">
-        <v>63</v>
+      <c r="T17" s="143" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="17" thickBot="1">
       <c r="B18" s="52"/>
       <c r="C18" s="132" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="97">
-        <f>ROUND(H20*H22/H21,2)</f>
-        <v>1530.43</v>
-      </c>
-      <c r="I18" s="89"/>
+        <v>110</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="123" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="123"/>
+      <c r="H18" s="100">
+        <v>46.4</v>
+      </c>
+      <c r="I18" s="18"/>
       <c r="J18" s="89"/>
       <c r="K18" s="89"/>
       <c r="L18" s="89"/>
       <c r="M18" s="89"/>
       <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
+      <c r="O18" s="99"/>
       <c r="P18" s="89"/>
       <c r="Q18" s="89"/>
       <c r="R18" s="89"/>
-      <c r="T18" s="124" t="s">
-        <v>121</v>
+      <c r="T18" s="45" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="17" thickBot="1">
       <c r="B19" s="52"/>
       <c r="C19" s="132" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
+        <v>111</v>
+      </c>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="82" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G19" s="84"/>
       <c r="H19" s="97">
-        <f>H18*H21</f>
-        <v>6886935</v>
+        <f>ROUND(H21*H23/H22,2)</f>
+        <v>1530.43</v>
       </c>
       <c r="I19" s="89"/>
       <c r="J19" s="89"/>
@@ -4235,23 +4215,24 @@
       <c r="P19" s="89"/>
       <c r="Q19" s="89"/>
       <c r="R19" s="89"/>
-      <c r="T19" s="45" t="s">
-        <v>63</v>
+      <c r="T19" s="124" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="17" thickBot="1">
       <c r="B20" s="52"/>
       <c r="C20" s="132" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D20" s="101"/>
       <c r="E20" s="101"/>
-      <c r="F20" s="121" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="129"/>
+      <c r="F20" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="84"/>
       <c r="H20" s="97">
-        <v>2.2000000000000002</v>
+        <f>H19*H22</f>
+        <v>6886935</v>
       </c>
       <c r="I20" s="89"/>
       <c r="J20" s="89"/>
@@ -4263,48 +4244,49 @@
       <c r="P20" s="89"/>
       <c r="Q20" s="89"/>
       <c r="R20" s="89"/>
-      <c r="T20" s="45"/>
+      <c r="T20" s="45" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="2:20" ht="17" thickBot="1">
       <c r="B21" s="52"/>
       <c r="C21" s="132" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="103">
-        <v>4500</v>
-      </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="92"/>
-      <c r="T21" s="80"/>
+        <v>56</v>
+      </c>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="129"/>
+      <c r="H21" s="97">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="T21" s="45"/>
     </row>
     <row r="22" spans="2:20" ht="17" thickBot="1">
       <c r="B22" s="52"/>
-      <c r="C22" s="142" t="s">
-        <v>119</v>
+      <c r="C22" s="132" t="s">
+        <v>112</v>
       </c>
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
-      <c r="F22" s="124" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="109"/>
+      <c r="F22" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="53"/>
       <c r="H22" s="103">
-        <f>H21*H6</f>
-        <v>3130425</v>
+        <v>4500</v>
       </c>
       <c r="I22" s="53"/>
       <c r="J22" s="79"/>
@@ -4318,8 +4300,35 @@
       <c r="R22" s="92"/>
       <c r="T22" s="80"/>
     </row>
+    <row r="23" spans="2:20" ht="17" thickBot="1">
+      <c r="B23" s="52"/>
+      <c r="C23" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="109"/>
+      <c r="H23" s="103">
+        <f>H22*H7</f>
+        <v>3130425</v>
+      </c>
+      <c r="I23" s="53"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="T23" s="80"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="T19:T20">
+  <conditionalFormatting sqref="T20:T21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4330,10 +4339,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="T11" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="T10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="T19" r:id="rId3" location="issuecomment-18286997" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="T17" r:id="rId4" location="issuecomment-18286997" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="T12" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="T11" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="T20" r:id="rId3" location="issuecomment-18286997" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="T18" r:id="rId4" location="issuecomment-18286997" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4351,17 +4360,17 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="54" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="54" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="54" customWidth="1"/>
-    <col min="6" max="8" width="12.140625" style="54" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" style="55" customWidth="1"/>
-    <col min="10" max="10" width="105.42578125" style="54" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="54"/>
+    <col min="1" max="1" width="10.1640625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="54" customWidth="1"/>
+    <col min="6" max="8" width="12.1640625" style="54" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" style="55" customWidth="1"/>
+    <col min="10" max="10" width="105.5" style="54" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -4403,7 +4412,7 @@
     <row r="5" spans="2:10">
       <c r="B5" s="64"/>
       <c r="C5" s="65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="65" t="s">
         <v>0</v>
@@ -4412,16 +4421,16 @@
         <v>20</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I5" s="66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J5" s="65" t="s">
         <v>17</v>
@@ -4438,7 +4447,7 @@
       <c r="I6" s="61"/>
       <c r="J6" s="60"/>
     </row>
-    <row r="7" spans="2:10" ht="17">
+    <row r="7" spans="2:10" ht="34">
       <c r="B7" s="59"/>
       <c r="C7" s="67"/>
       <c r="D7" s="67" t="s">
@@ -4448,17 +4457,17 @@
         <v>24</v>
       </c>
       <c r="F7" s="72" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G7" s="144">
         <v>2010</v>
       </c>
       <c r="H7" s="72"/>
       <c r="I7" s="73" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J7" s="74" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -4498,33 +4507,33 @@
       <c r="I10" s="73"/>
       <c r="J10" s="67"/>
     </row>
-    <row r="11" spans="2:10" s="145" customFormat="1" ht="17">
+    <row r="11" spans="2:10" s="145" customFormat="1" ht="34">
       <c r="B11" s="148"/>
       <c r="C11" s="154"/>
       <c r="D11" s="155" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E11" s="156" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F11" s="157" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G11" s="158" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H11" s="157"/>
       <c r="I11" s="165" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J11" s="155" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="145" customFormat="1">
       <c r="B12" s="148"/>
       <c r="C12" s="159" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D12" s="155"/>
       <c r="E12" s="149"/>
@@ -4537,7 +4546,7 @@
     <row r="13" spans="2:10" s="145" customFormat="1">
       <c r="B13" s="148"/>
       <c r="C13" s="159" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D13" s="155"/>
       <c r="E13" s="149"/>
@@ -4562,27 +4571,27 @@
       <c r="B15" s="59"/>
       <c r="C15" s="67"/>
       <c r="D15" s="67" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H15" s="63"/>
       <c r="I15" s="63" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J15" s="74"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="59"/>
       <c r="C16" s="70" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="62"/>
@@ -4607,25 +4616,25 @@
       <c r="B18" s="59"/>
       <c r="C18" s="67"/>
       <c r="D18" s="67" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E18" s="62"/>
       <c r="F18" s="63">
         <v>2013</v>
       </c>
       <c r="G18" s="63" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="74" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="59"/>
       <c r="C19" s="67" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="62"/>
@@ -4638,7 +4647,7 @@
     <row r="20" spans="2:10">
       <c r="B20" s="59"/>
       <c r="C20" s="70" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D20" s="67"/>
       <c r="E20" s="62"/>
@@ -4651,7 +4660,7 @@
     <row r="21" spans="2:10">
       <c r="B21" s="59"/>
       <c r="C21" s="70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D21" s="62"/>
       <c r="E21" s="67"/>
@@ -4676,7 +4685,7 @@
       <c r="B23" s="59"/>
       <c r="C23" s="67"/>
       <c r="D23" s="54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E23" s="67" t="s">
         <v>10</v>
@@ -4684,20 +4693,20 @@
       <c r="F23" s="67"/>
       <c r="G23" s="67"/>
       <c r="H23" s="67" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I23" s="75"/>
       <c r="J23" s="67" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="59"/>
       <c r="C24" s="70" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E24" s="67"/>
       <c r="F24" s="67"/>
@@ -4721,7 +4730,7 @@
       <c r="B26" s="59"/>
       <c r="C26" s="67"/>
       <c r="D26" s="62" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E26" s="67" t="s">
         <v>10</v>
@@ -4729,20 +4738,20 @@
       <c r="F26" s="67"/>
       <c r="G26" s="67"/>
       <c r="H26" s="67" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I26" s="75"/>
       <c r="J26" s="67" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="59"/>
       <c r="C27" s="70" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E27" s="67"/>
       <c r="F27" s="67"/>
@@ -4767,17 +4776,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:O73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5" style="145" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="145" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="145" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="145" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="145"/>
+    <col min="2" max="2" width="4.83203125" style="145" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="145" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="145" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="145"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1"/>
@@ -4800,11 +4809,11 @@
     <row r="3" spans="2:15" s="35" customFormat="1">
       <c r="B3" s="134"/>
       <c r="C3" s="22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -4836,7 +4845,7 @@
     <row r="5" spans="2:15">
       <c r="B5" s="148"/>
       <c r="C5" s="149" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="149"/>
       <c r="E5" s="149"/>
@@ -4870,7 +4879,7 @@
     <row r="7" spans="2:15">
       <c r="B7" s="148"/>
       <c r="C7" s="149" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D7" s="149"/>
       <c r="E7" s="149"/>
@@ -5065,7 +5074,7 @@
       <c r="B19" s="148"/>
       <c r="C19" s="149"/>
       <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
+      <c r="E19" s="178"/>
       <c r="F19" s="149"/>
       <c r="G19" s="149"/>
       <c r="H19" s="149"/>
@@ -5080,8 +5089,12 @@
     <row r="20" spans="2:15">
       <c r="B20" s="148"/>
       <c r="C20" s="149"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
+      <c r="D20" s="149">
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="178" t="s">
+        <v>145</v>
+      </c>
       <c r="F20" s="149"/>
       <c r="G20" s="149"/>
       <c r="H20" s="149"/>
@@ -5116,7 +5129,7 @@
         <v>1400</v>
       </c>
       <c r="E22" s="149" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F22" s="149"/>
       <c r="G22" s="149"/>
@@ -5196,7 +5209,7 @@
     <row r="27" spans="2:15">
       <c r="B27" s="148"/>
       <c r="C27" s="149" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D27" s="149"/>
       <c r="E27" s="149"/>
@@ -5230,7 +5243,7 @@
     <row r="29" spans="2:15">
       <c r="B29" s="148"/>
       <c r="C29" s="149" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D29" s="149"/>
       <c r="E29" s="149"/>
@@ -5318,7 +5331,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="149" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G34" s="149"/>
       <c r="H34" s="149"/>
@@ -5333,13 +5346,13 @@
     <row r="35" spans="2:15">
       <c r="B35" s="148"/>
       <c r="C35" s="149" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D35" s="149">
         <v>40</v>
       </c>
       <c r="E35" s="149" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G35" s="149"/>
       <c r="H35" s="149"/>
@@ -5548,7 +5561,7 @@
     <row r="48" spans="2:15">
       <c r="B48" s="148"/>
       <c r="C48" s="149" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D48" s="149"/>
       <c r="E48" s="149"/>
@@ -5678,13 +5691,13 @@
     <row r="56" spans="2:15">
       <c r="B56" s="148"/>
       <c r="C56" s="149" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D56" s="153">
         <v>40</v>
       </c>
       <c r="E56" s="153" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F56" s="149"/>
       <c r="G56" s="149"/>
@@ -5764,7 +5777,7 @@
     <row r="61" spans="2:15">
       <c r="B61" s="148"/>
       <c r="C61" s="149" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D61" s="149"/>
       <c r="E61" s="149"/>
@@ -5868,7 +5881,7 @@
         <v>4</v>
       </c>
       <c r="E67" s="149" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G67" s="149"/>
       <c r="H67" s="149"/>
